--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Face_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A06CF5-6B63-4819-B2F3-0F85F06DBE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538E455-CAFF-47B9-AF65-992AA66A4602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C23D324E-2049-474A-9275-67550E0826EC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>User</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Japanese voice actress and singer</t>
+  </si>
+  <si>
+    <t>Naman</t>
+  </si>
+  <si>
+    <t>Student</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE914B1-FBA2-447A-A307-D06EB1AD79BF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +492,17 @@
         <v>33674</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36604</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Commander of the Order of the British Empire" display="https://en.wikipedia.org/wiki/Commander_of_the_Order_of_the_British_Empire" xr:uid="{717078E7-BE5E-46AB-B4F6-09E1CE2F4398}"/>
